--- a/20.11.3694_kmeans.xlsx
+++ b/20.11.3694_kmeans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\,KULIAH\SMT 5\DATA MINING 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E38E6-9DFF-497B-9804-7E71D03DDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717D285-810F-49A0-9163-C57914CDA816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21E1ED1C-99E2-4BD9-8C7A-EDCCCFDB7C26}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
   <si>
     <t>DATA</t>
   </si>
@@ -175,12 +175,15 @@
   <si>
     <t>LINK EXCEL</t>
   </si>
+  <si>
+    <t>https://github.com/azizfath/bddm3/raw/main/20.11.3694_kmeans.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -380,10 +391,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,8 +514,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6065,8 +6081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4B152-2CC6-4FA8-8C81-C16C5DC94099}">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6081,7 +6097,7 @@
     <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
@@ -6090,7 +6106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>38</v>
       </c>
@@ -6100,8 +6116,11 @@
       <c r="J2" s="22" t="s">
         <v>44</v>
       </c>
+      <c r="L2" s="40" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
@@ -6109,7 +6128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6140,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -6184,7 +6203,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -6205,7 +6224,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6217,7 +6236,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -6229,7 +6248,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -6241,7 +6260,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -6253,7 +6272,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6265,7 +6284,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6277,7 +6296,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -9270,14 +9289,17 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="L24:N24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{0A925CC8-4EB1-4341-A4E1-F35D177DDEBD}"/>
+  </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="21" max="18" man="1"/>
     <brk id="52" max="18" man="1"/>
     <brk id="83" max="18" man="1"/>
     <brk id="114" max="18" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/20.11.3694_kmeans.xlsx
+++ b/20.11.3694_kmeans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\,KULIAH\SMT 5\DATA MINING 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95326806-83C2-4FBA-B6BF-266FE2844328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210C7E0-17CD-4674-9371-24E9A1CFA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21E1ED1C-99E2-4BD9-8C7A-EDCCCFDB7C26}"/>
   </bookViews>
@@ -461,9 +461,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,22 +488,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2794,7 +2794,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5592,7 +5592,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>601425</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>30525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5668,7 +5668,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>135300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5706,7 +5706,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>135300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5744,7 +5744,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>135300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6073,11 +6073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4B152-2CC6-4FA8-8C81-C16C5DC94099}">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="11"/>
@@ -6089,7 +6089,7 @@
     <col min="16" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
@@ -6120,19 +6120,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -6300,65 +6300,65 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
     </row>
-    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="P24" s="34" t="s">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="P24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
     </row>
-    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -6377,10 +6377,10 @@
       <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31"/>
       <c r="L25" s="6" t="s">
         <v>5</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>2.7777777777777786</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -6795,11 +6795,11 @@
         <f t="shared" si="0"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
       <c r="P32" s="2" t="s">
         <v>16</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.11111111111111091</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -6853,9 +6853,9 @@
         <f t="shared" si="0"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
       <c r="P33" s="2" t="s">
         <v>17</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -6909,9 +6909,9 @@
         <f t="shared" si="0"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
       <c r="P34" s="2" t="s">
         <v>19</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>1.777777777777777</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -6965,9 +6965,9 @@
         <f t="shared" si="0"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
       <c r="P35" s="2" t="s">
         <v>18</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P36" s="1" t="s">
         <v>25</v>
       </c>
@@ -7001,88 +7001,88 @@
         <v>4.6666666666666661</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P37" s="23" t="s">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="9">
         <f>SUM(Q36:S36)</f>
         <v>47.166666666666671</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" s="23" t="s">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="9">
         <f>S37-0</f>
         <v>47.166666666666671</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
     </row>
-    <row r="55" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31" t="s">
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="31" t="s">
         <v>30</v>
       </c>
       <c r="K55" s="16"/>
-      <c r="L55" s="30" t="s">
+      <c r="L55" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="P55" s="34" t="s">
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="P55" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
     </row>
-    <row r="56" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
@@ -7101,10 +7101,10 @@
       <c r="F56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="16"/>
       <c r="L56" s="6" t="s">
         <v>5</v>
@@ -7128,7 +7128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>5.9200000000000017</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -7527,11 +7527,11 @@
         <f t="shared" si="13"/>
         <v>TETAP</v>
       </c>
-      <c r="L63" s="27" t="s">
+      <c r="L63" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
       <c r="P63" s="2" t="s">
         <v>16</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0.32000000000000017</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
@@ -7586,9 +7586,9 @@
         <f t="shared" si="13"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
       <c r="P64" s="2" t="s">
         <v>17</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0.52000000000000035</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>19</v>
       </c>
@@ -7643,9 +7643,9 @@
         <f t="shared" si="13"/>
         <v>TETAP</v>
       </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
       <c r="P65" s="2" t="s">
         <v>19</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0.51999999999999957</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -7700,9 +7700,9 @@
         <f t="shared" si="13"/>
         <v>BERUBAH</v>
       </c>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
       <c r="P66" s="2" t="s">
         <v>18</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>7.1199999999999983</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P67" s="1" t="s">
         <v>25</v>
       </c>
@@ -7736,88 +7736,88 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P68" s="23" t="s">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="25"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="24"/>
       <c r="S68" s="9">
         <f>SUM(Q67:S67)</f>
         <v>19.566666666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="23" t="s">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="25"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="24"/>
       <c r="S69" s="9">
         <f>S37-S68</f>
         <v>27.600000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+    <row r="84" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
     </row>
-    <row r="86" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="31" t="s">
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="32" t="s">
+      <c r="H86" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I86" s="32" t="s">
+      <c r="I86" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J86" s="33" t="s">
+      <c r="J86" s="31" t="s">
         <v>30</v>
       </c>
       <c r="K86" s="16"/>
-      <c r="L86" s="30" t="s">
+      <c r="L86" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="P86" s="34" t="s">
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="P86" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
     </row>
-    <row r="87" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
@@ -7836,10 +7836,10 @@
       <c r="F87" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="33"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="31"/>
       <c r="K87" s="16"/>
       <c r="L87" s="6" t="s">
         <v>5</v>
@@ -7863,7 +7863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>14</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>15</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -8262,11 +8262,11 @@
         <f t="shared" si="22"/>
         <v>TETAP</v>
       </c>
-      <c r="L94" s="27" t="s">
+      <c r="L94" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
       <c r="P94" s="2" t="s">
         <v>16</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -8321,9 +8321,9 @@
         <f t="shared" si="22"/>
         <v>TETAP</v>
       </c>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
       <c r="P95" s="2" t="s">
         <v>17</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>19</v>
       </c>
@@ -8378,9 +8378,9 @@
         <f t="shared" si="22"/>
         <v>TETAP</v>
       </c>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
       <c r="P96" s="2" t="s">
         <v>19</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -8435,9 +8435,9 @@
         <f t="shared" si="22"/>
         <v>TETAP</v>
       </c>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
       <c r="P97" s="2" t="s">
         <v>18</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P98" s="1" t="s">
         <v>25</v>
       </c>
@@ -8471,88 +8471,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P99" s="23" t="s">
+    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="25"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="24"/>
       <c r="S99" s="9">
         <f>SUM(Q98:S98)</f>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P100" s="23" t="s">
+    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="25"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="24"/>
       <c r="S100" s="9">
         <f>S68-S99</f>
         <v>5.2333333333333325</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+    <row r="115" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="28"/>
-      <c r="O115" s="28"/>
-      <c r="P115" s="28"/>
-      <c r="Q115" s="28"/>
-      <c r="R115" s="28"/>
-      <c r="S115" s="28"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
     </row>
-    <row r="117" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
+    <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30" t="s">
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="31" t="s">
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H117" s="32" t="s">
+      <c r="H117" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I117" s="32" t="s">
+      <c r="I117" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J117" s="33" t="s">
+      <c r="J117" s="31" t="s">
         <v>30</v>
       </c>
       <c r="K117" s="16"/>
-      <c r="L117" s="30" t="s">
+      <c r="L117" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M117" s="30"/>
-      <c r="N117" s="30"/>
-      <c r="P117" s="34" t="s">
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="P117" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
     </row>
-    <row r="118" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>5</v>
       </c>
@@ -8571,10 +8571,10 @@
       <c r="F118" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="31"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="33"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="31"/>
       <c r="K118" s="16"/>
       <c r="L118" s="6" t="s">
         <v>5</v>
@@ -8598,7 +8598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>13</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>14</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>15</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -8997,11 +8997,11 @@
         <f t="shared" si="34"/>
         <v>TETAP</v>
       </c>
-      <c r="L125" s="26" t="s">
+      <c r="L125" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M125" s="26"/>
-      <c r="N125" s="26"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
       <c r="P125" s="2" t="s">
         <v>16</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -9056,9 +9056,9 @@
         <f t="shared" si="34"/>
         <v>TETAP</v>
       </c>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="25"/>
       <c r="P126" s="2" t="s">
         <v>17</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>19</v>
       </c>
@@ -9113,9 +9113,9 @@
         <f t="shared" si="34"/>
         <v>TETAP</v>
       </c>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
       <c r="P127" s="2" t="s">
         <v>19</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -9170,9 +9170,9 @@
         <f t="shared" si="34"/>
         <v>TETAP</v>
       </c>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
       <c r="P128" s="2" t="s">
         <v>18</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="129" spans="16:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P129" s="1" t="s">
         <v>25</v>
       </c>
@@ -9206,23 +9206,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="16:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P130" s="23" t="s">
+    <row r="130" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P130" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q130" s="24"/>
-      <c r="R130" s="25"/>
+      <c r="Q130" s="23"/>
+      <c r="R130" s="24"/>
       <c r="S130" s="9">
         <f>SUM(Q129:S129)</f>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="131" spans="16:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P131" s="23" t="s">
+    <row r="131" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P131" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="25"/>
+      <c r="Q131" s="23"/>
+      <c r="R131" s="24"/>
       <c r="S131" s="10">
         <f>S99-S130</f>
         <v>0</v>
@@ -9251,27 +9251,24 @@
     <mergeCell ref="P55:S55"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="A84:S84"/>
+    <mergeCell ref="L32:N35"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="D86:F86"/>
     <mergeCell ref="G86:G87"/>
     <mergeCell ref="H86:H87"/>
     <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="P86:S86"/>
     <mergeCell ref="H117:H118"/>
     <mergeCell ref="I117:I118"/>
     <mergeCell ref="J117:J118"/>
     <mergeCell ref="L117:N117"/>
     <mergeCell ref="P117:S117"/>
-    <mergeCell ref="L32:N35"/>
     <mergeCell ref="P130:R130"/>
     <mergeCell ref="P131:R131"/>
     <mergeCell ref="L125:N128"/>
     <mergeCell ref="L94:N97"/>
     <mergeCell ref="L63:N66"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="P69:R69"/>
     <mergeCell ref="P99:R99"/>
@@ -9280,18 +9277,18 @@
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="G117:G118"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="P86:S86"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{0A925CC8-4EB1-4341-A4E1-F35D177DDEBD}"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="21" max="18" man="1"/>
     <brk id="52" max="18" man="1"/>
     <brk id="83" max="18" man="1"/>
     <brk id="114" max="18" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/20.11.3694_kmeans.xlsx
+++ b/20.11.3694_kmeans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\,KULIAH\SMT 5\DATA MINING 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210C7E0-17CD-4674-9371-24E9A1CFA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E38E6-9DFF-497B-9804-7E71D03DDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21E1ED1C-99E2-4BD9-8C7A-EDCCCFDB7C26}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t>DATA</t>
   </si>
@@ -175,15 +175,12 @@
   <si>
     <t>LINK EXCEL</t>
   </si>
-  <si>
-    <t>https://github.com/azizfath/bddm3/raw/main/20.11.3694_kmeans.xlsx</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +228,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -262,21 +265,6 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -392,20 +380,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,20 +460,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,72 +478,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2794,7 +2786,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5592,7 +5584,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>601425</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>30525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5668,7 +5660,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>135300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5706,7 +5698,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>135300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5744,7 +5736,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10875</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>135300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6073,87 +6065,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4B152-2CC6-4FA8-8C81-C16C5DC94099}">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="11"/>
-    <col min="4" max="9" width="9.140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="3" style="11" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="11"/>
-    <col min="15" max="15" width="2.5703125" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="22"/>
+    <col min="4" max="9" width="9.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="3" style="22" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="22"/>
+    <col min="15" max="15" width="2.5703125" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="38"/>
+      <c r="J1" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="E5" s="37" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6163,18 +6152,18 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -6184,18 +6173,18 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>3.4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -6205,18 +6194,18 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>2.75</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6226,9 +6215,9 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -6238,9 +6227,9 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -6250,9 +6239,9 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -6262,9 +6251,9 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6274,9 +6263,9 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6286,9 +6275,9 @@
       <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -6298,108 +6287,108 @@
       <c r="C16" s="2">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="P24" s="32" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="P24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="31"/>
-      <c r="L25" s="6" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="12"/>
+      <c r="L25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6413,57 +6402,57 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="28">
         <f>SQRT(($B26-$F$7)^2+($C26-$G$7)^2)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="10">
         <f>SQRT(($B26-$F$8)^2+($C26-$G$8)^2)</f>
         <v>3.6878177829171546</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="10">
         <f>SQRT(($B26-$F$9)^2+($C26-$G$9)^2)</f>
         <v>3.2596012026013246</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="10">
         <f>MIN(D26:F26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="29" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>IF(MIN(D26:F26)=D26,$E$7,(IF(MIN(D26:F26)=E26,$E$8,$E$9)))</f>
         <v>C1</v>
       </c>
-      <c r="J26" s="17" t="str">
-        <f t="shared" ref="J26:J35" si="0">IF(H26=I26,"TETAP","BERUBAH")</f>
+      <c r="J26" s="35" t="str">
+        <f>IF(H26=I26,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="10">
         <f>AVERAGEIF($I26:$I35,"C1",$B26:$B35)</f>
         <v>1</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="10">
         <f>AVERAGEIF($I26:$I35,"C1",$C26:$C35)</f>
         <v>1.5</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" ref="Q26:Q35" si="1">IF(MIN($D26:$F26)=$D26,($B26-$M$26)^2+($C26-$N$26)^2,0)</f>
+      <c r="Q26" s="10">
+        <f>IF(MIN($D26:$F26)=$D26,($B26-$M$26)^2+($C26-$N$26)^2,0)</f>
         <v>0.25</v>
       </c>
-      <c r="R26" s="7">
-        <f t="shared" ref="R26:R35" si="2">IF(MIN($D26:$F26)=$E26,($B26-$M$27)^2+($C26-$N$27)^2,0)</f>
+      <c r="R26" s="10">
+        <f>IF(MIN($D26:$F26)=$E26,($B26-$M$27)^2+($C26-$N$27)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="7">
-        <f t="shared" ref="S26:S35" si="3">IF(MIN($D26:$F26)=$F26,($B26-$M$28)^2+($C26-$N$28)^2,0)</f>
+      <c r="S26" s="10">
+        <f>IF(MIN($D26:$F26)=$F26,($B26-$M$28)^2+($C26-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6477,57 +6466,57 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" ref="D27:D35" si="4">SQRT(($B27-$F$7)^2+($C27-$G$7)^2)</f>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:D35" si="0">SQRT(($B27-$F$7)^2+($C27-$G$7)^2)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="13">
-        <f t="shared" ref="E27:E35" si="5">SQRT(($B27-$F$8)^2+($C27-$G$8)^2)</f>
+      <c r="E27" s="28">
+        <f t="shared" ref="E27:E35" si="1">SQRT(($B27-$F$8)^2+($C27-$G$8)^2)</f>
         <v>2.8635642126552705</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" ref="F27:F35" si="6">SQRT(($B27-$F$9)^2+($C27-$G$9)^2)</f>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F35" si="2">SQRT(($B27-$F$9)^2+($C27-$G$9)^2)</f>
         <v>3.0207614933986431</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" ref="G27:G35" si="7">MIN(D27:F27)</f>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27:G35" si="3">MIN(D27:F27)</f>
         <v>2.8635642126552705</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="29" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" ref="I27:I35" si="8">IF(MIN(D27:F27)=D27,$D$56,(IF(MIN(D27:F27)=E27,$E$56,$F$56)))</f>
+        <f t="shared" ref="I27:I35" si="4">IF(MIN(D27:F27)=D27,$D$56,(IF(MIN(D27:F27)=E27,$E$56,$F$56)))</f>
         <v>C2</v>
       </c>
-      <c r="J27" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J27" s="35" t="str">
+        <f>IF(H27=I27,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="10">
         <f>AVERAGEIF($I26:$I35,"C2",$B26:$B35)</f>
         <v>4.2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="10">
         <f>AVERAGEIF($I26:$I35,"C2",$C26:$C35)</f>
         <v>3.6</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="10">
+        <f>IF(MIN($D27:$F27)=$D27,($B27-$M$26)^2+($C27-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="7">
-        <f t="shared" si="2"/>
+      <c r="R27" s="10">
+        <f>IF(MIN($D27:$F27)=$E27,($B27-$M$27)^2+($C27-$N$27)^2,0)</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="S27" s="7">
-        <f t="shared" si="3"/>
+      <c r="S27" s="10">
+        <f>IF(MIN($D27:$F27)=$F27,($B27-$M$28)^2+($C27-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6541,57 +6530,57 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="1"/>
+        <v>3.8209946349085602</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2573465914816007</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8209946349085602</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="5"/>
-        <v>3.8209946349085602</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="6"/>
-        <v>4.2573465914816007</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="7"/>
-        <v>3.8209946349085602</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J28" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J28" s="35" t="str">
+        <f>IF(H28=I28,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="10">
         <f>AVERAGEIF($I26:$I35,"C3",$B26:$B35)</f>
         <v>2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="10">
         <f>AVERAGEIF($I26:$I35,"C3",$C26:$C35)</f>
         <v>4.666666666666667</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="10">
+        <f>IF(MIN($D28:$F28)=$D28,($B28-$M$26)^2+($C28-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="7">
-        <f t="shared" si="2"/>
+      <c r="R28" s="10">
+        <f>IF(MIN($D28:$F28)=$E28,($B28-$M$27)^2+($C28-$N$27)^2,0)</f>
         <v>10</v>
       </c>
-      <c r="S28" s="7">
-        <f t="shared" si="3"/>
+      <c r="S28" s="10">
+        <f>IF(MIN($D28:$F28)=$F28,($B28-$M$28)^2+($C28-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6605,46 +6594,46 @@
       <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4748737341529163</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="6"/>
-        <v>2.4748737341529163</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C1</v>
       </c>
-      <c r="J29" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J29" s="35" t="str">
+        <f>IF(H29=I29,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="10">
+        <f>IF(MIN($D29:$F29)=$D29,($B29-$M$26)^2+($C29-$N$26)^2,0)</f>
         <v>0.25</v>
       </c>
-      <c r="R29" s="7">
-        <f t="shared" si="2"/>
+      <c r="R29" s="10">
+        <f>IF(MIN($D29:$F29)=$E29,($B29-$M$27)^2+($C29-$N$27)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="7">
-        <f t="shared" si="3"/>
+      <c r="S29" s="10">
+        <f>IF(MIN($D29:$F29)=$F29,($B29-$M$28)^2+($C29-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6658,49 +6647,49 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6124515496597098</v>
+      </c>
+      <c r="F30" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="5"/>
-        <v>1.6124515496597098</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="6"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="7"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J30" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J30" s="35" t="str">
+        <f>IF(H30=I30,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="30" t="s">
         <v>27</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="10">
+        <f>IF(MIN($D30:$F30)=$D30,($B30-$M$26)^2+($C30-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="7">
-        <f t="shared" si="2"/>
+      <c r="R30" s="10">
+        <f>IF(MIN($D30:$F30)=$E30,($B30-$M$27)^2+($C30-$N$27)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="7">
-        <f t="shared" si="3"/>
+      <c r="S30" s="10">
+        <f>IF(MIN($D30:$F30)=$F30,($B30-$M$28)^2+($C30-$N$28)^2,0)</f>
         <v>2.7777777777777786</v>
       </c>
     </row>
@@ -6714,47 +6703,47 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E31" s="28">
+        <f t="shared" si="1"/>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3717082451262845</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="E31" s="13">
-        <f t="shared" si="5"/>
-        <v>1.7888543819998317</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="6"/>
-        <v>2.3717082451262845</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="7"/>
-        <v>1.7888543819998317</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J31" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J31" s="35" t="str">
+        <f>IF(H31=I31,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="30"/>
       <c r="P31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="10">
+        <f>IF(MIN($D31:$F31)=$D31,($B31-$M$26)^2+($C31-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="7">
-        <f t="shared" si="2"/>
+      <c r="R31" s="10">
+        <f>IF(MIN($D31:$F31)=$E31,($B31-$M$27)^2+($C31-$N$27)^2,0)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="S31" s="7">
-        <f t="shared" si="3"/>
+      <c r="S31" s="10">
+        <f>IF(MIN($D31:$F31)=$F31,($B31-$M$28)^2+($C31-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6768,31 +6757,31 @@
       <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8439088914585775</v>
+      </c>
+      <c r="F32" s="28">
+        <f t="shared" si="2"/>
+        <v>1.4577379737113252</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4577379737113252</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="5"/>
-        <v>1.8439088914585775</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" si="6"/>
-        <v>1.4577379737113252</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="7"/>
-        <v>1.4577379737113252</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J32" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J32" s="35" t="str">
+        <f>IF(H32=I32,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L32" s="34" t="s">
@@ -6803,16 +6792,16 @@
       <c r="P32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q32" s="10">
+        <f>IF(MIN($D32:$F32)=$D32,($B32-$M$26)^2+($C32-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="7">
-        <f t="shared" si="2"/>
+      <c r="R32" s="10">
+        <f>IF(MIN($D32:$F32)=$E32,($B32-$M$27)^2+($C32-$N$27)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="7">
-        <f t="shared" si="3"/>
+      <c r="S32" s="10">
+        <f>IF(MIN($D32:$F32)=$F32,($B32-$M$28)^2+($C32-$N$28)^2,0)</f>
         <v>0.11111111111111091</v>
       </c>
     </row>
@@ -6826,31 +6815,31 @@
       <c r="C33" s="2">
         <v>5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E33" s="28">
+        <f t="shared" si="1"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2747548783981961</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="E33" s="13">
-        <f t="shared" si="5"/>
-        <v>1.2649110640673518</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="6"/>
-        <v>1.2747548783981961</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="7"/>
-        <v>1.2649110640673518</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J33" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J33" s="35" t="str">
+        <f>IF(H33=I33,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L33" s="34"/>
@@ -6859,16 +6848,16 @@
       <c r="P33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q33" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="10">
+        <f>IF(MIN($D33:$F33)=$D33,($B33-$M$26)^2+($C33-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="7">
-        <f t="shared" si="2"/>
+      <c r="R33" s="10">
+        <f>IF(MIN($D33:$F33)=$E33,($B33-$M$27)^2+($C33-$N$27)^2,0)</f>
         <v>3.4000000000000004</v>
       </c>
-      <c r="S33" s="7">
-        <f t="shared" si="3"/>
+      <c r="S33" s="10">
+        <f>IF(MIN($D33:$F33)=$F33,($B33-$M$28)^2+($C33-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6882,31 +6871,31 @@
       <c r="C34" s="2">
         <v>6</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="1"/>
+        <v>2.6076809620810595</v>
+      </c>
+      <c r="F34" s="28">
+        <f t="shared" si="2"/>
+        <v>2.3717082451262845</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3717082451262845</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="5"/>
-        <v>2.6076809620810595</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="6"/>
-        <v>2.3717082451262845</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="7"/>
-        <v>2.3717082451262845</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J34" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J34" s="35" t="str">
+        <f>IF(H34=I34,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L34" s="34"/>
@@ -6915,16 +6904,16 @@
       <c r="P34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q34" s="10">
+        <f>IF(MIN($D34:$F34)=$D34,($B34-$M$26)^2+($C34-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="7">
-        <f t="shared" si="2"/>
+      <c r="R34" s="10">
+        <f>IF(MIN($D34:$F34)=$E34,($B34-$M$27)^2+($C34-$N$27)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="7">
-        <f t="shared" si="3"/>
+      <c r="S34" s="10">
+        <f>IF(MIN($D34:$F34)=$F34,($B34-$M$28)^2+($C34-$N$28)^2,0)</f>
         <v>1.777777777777777</v>
       </c>
     </row>
@@ -6938,31 +6927,31 @@
       <c r="C35" s="2">
         <v>8</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="10">
+        <f t="shared" si="0"/>
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="1"/>
+        <v>4.2190046219457971</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2573465914816007</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="3"/>
+        <v>4.2190046219457971</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>7.2801098892805181</v>
-      </c>
-      <c r="E35" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2190046219457971</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="6"/>
-        <v>4.2573465914816007</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="7"/>
-        <v>4.2190046219457971</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J35" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="J35" s="35" t="str">
+        <f>IF(H35=I35,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
       <c r="L35" s="34"/>
@@ -6971,160 +6960,160 @@
       <c r="P35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q35" s="10">
+        <f>IF(MIN($D35:$F35)=$D35,($B35-$M$26)^2+($C35-$N$26)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="7">
-        <f t="shared" si="2"/>
+      <c r="R35" s="10">
+        <f>IF(MIN($D35:$F35)=$E35,($B35-$M$27)^2+($C35-$N$27)^2,0)</f>
         <v>20.800000000000004</v>
       </c>
-      <c r="S35" s="7">
-        <f t="shared" si="3"/>
+      <c r="S35" s="10">
+        <f>IF(MIN($D35:$F35)=$F35,($B35-$M$28)^2+($C35-$N$28)^2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="15">
         <f>SUM(Q26:Q35)</f>
         <v>0.5</v>
       </c>
-      <c r="R36" s="8">
-        <f t="shared" ref="R36:S36" si="9">SUM(R26:R35)</f>
+      <c r="R36" s="15">
+        <f t="shared" ref="R36:S36" si="5">SUM(R26:R35)</f>
         <v>42.000000000000007</v>
       </c>
-      <c r="S36" s="8">
-        <f t="shared" si="9"/>
+      <c r="S36" s="15">
+        <f t="shared" si="5"/>
         <v>4.6666666666666661</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P37" s="22" t="s">
+      <c r="P37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="9">
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="19">
         <f>SUM(Q36:S36)</f>
         <v>47.166666666666671</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="9">
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="19">
         <f>S37-0</f>
         <v>47.166666666666671</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30" t="s">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="29" t="s">
+      <c r="K55" s="31"/>
+      <c r="L55" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="P55" s="32" t="s">
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="P55" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="6" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="N56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q56" s="12" t="s">
+      <c r="Q56" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R56" s="12" t="s">
+      <c r="R56" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S56" s="12" t="s">
+      <c r="S56" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7138,23 +7127,23 @@
       <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="13">
-        <f t="shared" ref="D57:D66" si="10">SQRT(($B57-$M$26)^2+($C57-$N$26)^2)</f>
+      <c r="D57" s="28">
+        <f>SQRT(($B57-$M$26)^2+($C57-$N$26)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="E57" s="7">
-        <f t="shared" ref="E57:E66" si="11">SQRT(($B57-$M$27)^2+($C57-$N$27)^2)</f>
+      <c r="E57" s="10">
+        <f>SQRT(($B57-$M$27)^2+($C57-$N$27)^2)</f>
         <v>4.1231056256176606</v>
       </c>
-      <c r="F57" s="7">
-        <f t="shared" ref="F57:F66" si="12">SQRT(($B57-$M$28)^2+($C57-$N$28)^2)</f>
+      <c r="F57" s="10">
+        <f>SQRT(($B57-$M$28)^2+($C57-$N$28)^2)</f>
         <v>3.8005847503304602</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="10">
         <f>MIN(D57:F57)</f>
         <v>0.5</v>
       </c>
-      <c r="H57" s="2" t="str">
+      <c r="H57" s="32" t="str">
         <f>I26</f>
         <v>C1</v>
       </c>
@@ -7162,33 +7151,33 @@
         <f>IF(MIN(D57:F57)=D57,$E$7,(IF(MIN(D57:F57)=E57,$E$8,$E$9)))</f>
         <v>C1</v>
       </c>
-      <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J66" si="13">IF(H57=I57,"TETAP","BERUBAH")</f>
+      <c r="J57" s="37" t="str">
+        <f>IF(H57=I57,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="10">
         <f>AVERAGEIF($I57:$I66,"C1",$B57:$B66)</f>
         <v>1</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="10">
         <f>AVERAGEIF($I57:$I66,"C1",$C57:$C66)</f>
         <v>1.5</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="10">
         <f>IF(MIN($D57:$F57)=$D57,($B57-$M$57)^2+($C57-$N$57)^2,0)</f>
         <v>0.25</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="10">
         <f>IF(MIN($D57:$F57)=$E57,($B57-$M$58)^2+($C57-$N$58)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="10">
         <f>IF(MIN($D57:$F57)=$F57,($B57-$M$59)^2+($C57-$N$59)^2,0)</f>
         <v>0</v>
       </c>
@@ -7203,58 +7192,58 @@
       <c r="C58" s="2">
         <v>1</v>
       </c>
-      <c r="D58" s="7">
-        <f t="shared" si="10"/>
+      <c r="D58" s="10">
+        <f>SQRT(($B58-$M$26)^2+($C58-$N$26)^2)</f>
         <v>3.0413812651491097</v>
       </c>
-      <c r="E58" s="13">
-        <f t="shared" si="11"/>
+      <c r="E58" s="28">
+        <f>SQRT(($B58-$M$27)^2+($C58-$N$27)^2)</f>
         <v>2.6076809620810595</v>
       </c>
-      <c r="F58" s="7">
-        <f t="shared" si="12"/>
+      <c r="F58" s="10">
+        <f>SQRT(($B58-$M$28)^2+($C58-$N$28)^2)</f>
         <v>4.1766546953805559</v>
       </c>
-      <c r="G58" s="7">
-        <f t="shared" ref="G58:G66" si="14">MIN(D58:F58)</f>
+      <c r="G58" s="10">
+        <f t="shared" ref="G58:G66" si="6">MIN(D58:F58)</f>
         <v>2.6076809620810595</v>
       </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" ref="H58:H66" si="15">I27</f>
+      <c r="H58" s="32" t="str">
+        <f t="shared" ref="H58:H66" si="7">I27</f>
         <v>C2</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" ref="I58:I66" si="16">IF(MIN(D58:F58)=D58,$D$56,(IF(MIN(D58:F58)=E58,$E$56,$F$56)))</f>
+        <f t="shared" ref="I58:I66" si="8">IF(MIN(D58:F58)=D58,$D$56,(IF(MIN(D58:F58)=E58,$E$56,$F$56)))</f>
         <v>C2</v>
       </c>
-      <c r="J58" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J58" s="37" t="str">
+        <f>IF(H58=I58,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="10">
         <f>AVERAGEIF($I57:$I66,"C2",$B57:$B66)</f>
         <v>5</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="10">
         <f>AVERAGEIF($I57:$I66,"C2",$C57:$C66)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="7">
-        <f t="shared" ref="Q58:Q66" si="17">IF(MIN($D58:$F58)=$D58,($B58-$M$57)^2+($C58-$N$57)^2,0)</f>
+      <c r="Q58" s="10">
+        <f t="shared" ref="Q58:Q66" si="9">IF(MIN($D58:$F58)=$D58,($B58-$M$57)^2+($C58-$N$57)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="7">
-        <f t="shared" ref="R58:R66" si="18">IF(MIN($D58:$F58)=$E58,($B58-$M$58)^2+($C58-$N$58)^2,0)</f>
+      <c r="R58" s="10">
+        <f t="shared" ref="R58:R66" si="10">IF(MIN($D58:$F58)=$E58,($B58-$M$58)^2+($C58-$N$58)^2,0)</f>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S58" s="7">
-        <f t="shared" ref="S58:S66" si="19">IF(MIN($D58:$F58)=$F58,($B58-$M$59)^2+($C58-$N$59)^2,0)</f>
+      <c r="S58" s="10">
+        <f t="shared" ref="S58:S66" si="11">IF(MIN($D58:$F58)=$F58,($B58-$M$59)^2+($C58-$N$59)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7268,58 +7257,58 @@
       <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D59" s="7">
-        <f t="shared" si="10"/>
+      <c r="D59" s="10">
+        <f>SQRT(($B59-$M$26)^2+($C59-$N$26)^2)</f>
         <v>5.024937810560445</v>
       </c>
-      <c r="E59" s="13">
-        <f t="shared" si="11"/>
+      <c r="E59" s="28">
+        <f>SQRT(($B59-$M$27)^2+($C59-$N$27)^2)</f>
         <v>3.1622776601683795</v>
       </c>
-      <c r="F59" s="7">
-        <f t="shared" si="12"/>
+      <c r="F59" s="10">
+        <f>SQRT(($B59-$M$28)^2+($C59-$N$28)^2)</f>
         <v>5.4262735320332354</v>
       </c>
-      <c r="G59" s="7">
-        <f t="shared" si="14"/>
+      <c r="G59" s="10">
+        <f t="shared" si="6"/>
         <v>3.1622776601683795</v>
       </c>
-      <c r="H59" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H59" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C2</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J59" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J59" s="37" t="str">
+        <f>IF(H59=I59,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="10">
         <f>AVERAGEIF($I57:$I66,"C3",$B57:$B66)</f>
         <v>2.4</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="10">
         <f>AVERAGEIF($I57:$I66,"C3",$C57:$C66)</f>
         <v>5.4</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q59" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q59" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R59" s="7">
-        <f t="shared" si="18"/>
+      <c r="R59" s="10">
+        <f t="shared" si="10"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S59" s="7">
-        <f t="shared" si="19"/>
+      <c r="S59" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -7333,47 +7322,47 @@
       <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="D60" s="13">
-        <f t="shared" si="10"/>
+      <c r="D60" s="28">
+        <f>SQRT(($B60-$M$26)^2+($C60-$N$26)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="E60" s="7">
-        <f t="shared" si="11"/>
+      <c r="E60" s="10">
+        <f>SQRT(($B60-$M$27)^2+($C60-$N$27)^2)</f>
         <v>3.5777087639996639</v>
       </c>
-      <c r="F60" s="7">
-        <f t="shared" si="12"/>
+      <c r="F60" s="10">
+        <f>SQRT(($B60-$M$28)^2+($C60-$N$28)^2)</f>
         <v>2.8480012484391772</v>
       </c>
-      <c r="G60" s="7">
-        <f t="shared" si="14"/>
+      <c r="G60" s="10">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H60" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H60" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C1</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C1</v>
       </c>
-      <c r="J60" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J60" s="37" t="str">
+        <f>IF(H60=I60,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q60" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q60" s="10">
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="R60" s="7">
-        <f t="shared" si="18"/>
+      <c r="R60" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S60" s="7">
-        <f t="shared" si="19"/>
+      <c r="S60" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -7387,50 +7376,50 @@
       <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="D61" s="7">
-        <f t="shared" si="10"/>
+      <c r="D61" s="10">
+        <f>SQRT(($B61-$M$26)^2+($C61-$N$26)^2)</f>
         <v>1.8027756377319946</v>
       </c>
-      <c r="E61" s="7">
-        <f t="shared" si="11"/>
+      <c r="E61" s="10">
+        <f>SQRT(($B61-$M$27)^2+($C61-$N$27)^2)</f>
         <v>2.2803508501982761</v>
       </c>
-      <c r="F61" s="13">
-        <f t="shared" si="12"/>
+      <c r="F61" s="28">
+        <f>SQRT(($B61-$M$28)^2+($C61-$N$28)^2)</f>
         <v>1.666666666666667</v>
       </c>
-      <c r="G61" s="7">
-        <f t="shared" si="14"/>
+      <c r="G61" s="10">
+        <f t="shared" si="6"/>
         <v>1.666666666666667</v>
       </c>
-      <c r="H61" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H61" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C3</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J61" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J61" s="37" t="str">
+        <f>IF(H61=I61,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="30" t="s">
         <v>32</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q61" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q61" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R61" s="7">
-        <f t="shared" si="18"/>
+      <c r="R61" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S61" s="7">
-        <f t="shared" si="19"/>
+      <c r="S61" s="10">
+        <f t="shared" si="11"/>
         <v>5.9200000000000017</v>
       </c>
     </row>
@@ -7444,48 +7433,48 @@
       <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="D62" s="7">
-        <f t="shared" si="10"/>
+      <c r="D62" s="10">
+        <f>SQRT(($B62-$M$26)^2+($C62-$N$26)^2)</f>
         <v>4.2720018726587652</v>
       </c>
-      <c r="E62" s="13">
-        <f t="shared" si="11"/>
+      <c r="E62" s="28">
+        <f>SQRT(($B62-$M$27)^2+($C62-$N$27)^2)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F62" s="7">
-        <f t="shared" si="12"/>
+      <c r="F62" s="10">
+        <f>SQRT(($B62-$M$28)^2+($C62-$N$28)^2)</f>
         <v>3.4318767136623336</v>
       </c>
-      <c r="G62" s="7">
-        <f t="shared" si="14"/>
+      <c r="G62" s="10">
+        <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H62" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H62" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C2</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C2</v>
       </c>
-      <c r="J62" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J62" s="37" t="str">
+        <f>IF(H62=I62,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L62" s="15"/>
+      <c r="L62" s="30"/>
       <c r="P62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q62" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q62" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R62" s="7">
-        <f t="shared" si="18"/>
+      <c r="R62" s="10">
+        <f t="shared" si="10"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="S62" s="7">
-        <f t="shared" si="19"/>
+      <c r="S62" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -7499,52 +7488,52 @@
       <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="7">
-        <f t="shared" si="10"/>
+      <c r="D63" s="10">
+        <f>SQRT(($B63-$M$26)^2+($C63-$N$26)^2)</f>
         <v>3.640054944640259</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" si="11"/>
+      <c r="E63" s="10">
+        <f>SQRT(($B63-$M$27)^2+($C63-$N$27)^2)</f>
         <v>2.6076809620810595</v>
       </c>
-      <c r="F63" s="13">
-        <f t="shared" si="12"/>
+      <c r="F63" s="28">
+        <f>SQRT(($B63-$M$28)^2+($C63-$N$28)^2)</f>
         <v>0.33333333333333304</v>
       </c>
-      <c r="G63" s="7">
-        <f t="shared" si="14"/>
+      <c r="G63" s="10">
+        <f t="shared" si="6"/>
         <v>0.33333333333333304</v>
       </c>
-      <c r="H63" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H63" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C3</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J63" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J63" s="37" t="str">
+        <f>IF(H63=I63,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L63" s="26" t="s">
+      <c r="L63" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
       <c r="P63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q63" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q63" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R63" s="7">
-        <f t="shared" si="18"/>
+      <c r="R63" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S63" s="7">
-        <f t="shared" si="19"/>
+      <c r="S63" s="10">
+        <f t="shared" si="11"/>
         <v>0.32000000000000017</v>
       </c>
     </row>
@@ -7558,50 +7547,50 @@
       <c r="C64" s="2">
         <v>5</v>
       </c>
-      <c r="D64" s="7">
-        <f t="shared" si="10"/>
+      <c r="D64" s="10">
+        <f>SQRT(($B64-$M$26)^2+($C64-$N$26)^2)</f>
         <v>4.0311288741492746</v>
       </c>
-      <c r="E64" s="7">
-        <f t="shared" si="11"/>
+      <c r="E64" s="10">
+        <f>SQRT(($B64-$M$27)^2+($C64-$N$27)^2)</f>
         <v>1.8439088914585775</v>
       </c>
-      <c r="F64" s="13">
-        <f t="shared" si="12"/>
+      <c r="F64" s="28">
+        <f>SQRT(($B64-$M$28)^2+($C64-$N$28)^2)</f>
         <v>1.0540925533894596</v>
       </c>
-      <c r="G64" s="7">
-        <f t="shared" si="14"/>
+      <c r="G64" s="10">
+        <f t="shared" si="6"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="H64" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H64" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C2</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J64" s="17" t="str">
-        <f t="shared" si="13"/>
+      <c r="J64" s="35" t="str">
+        <f>IF(H64=I64,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
       <c r="P64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q64" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R64" s="7">
-        <f t="shared" si="18"/>
+      <c r="R64" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S64" s="7">
-        <f t="shared" si="19"/>
+      <c r="S64" s="10">
+        <f t="shared" si="11"/>
         <v>0.52000000000000035</v>
       </c>
     </row>
@@ -7615,50 +7604,50 @@
       <c r="C65" s="2">
         <v>6</v>
       </c>
-      <c r="D65" s="7">
-        <f t="shared" si="10"/>
+      <c r="D65" s="10">
+        <f>SQRT(($B65-$M$26)^2+($C65-$N$26)^2)</f>
         <v>4.6097722286464435</v>
       </c>
-      <c r="E65" s="7">
-        <f t="shared" si="11"/>
+      <c r="E65" s="10">
+        <f>SQRT(($B65-$M$27)^2+($C65-$N$27)^2)</f>
         <v>3.2557641192199416</v>
       </c>
-      <c r="F65" s="13">
-        <f t="shared" si="12"/>
+      <c r="F65" s="28">
+        <f>SQRT(($B65-$M$28)^2+($C65-$N$28)^2)</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="G65" s="7">
-        <f t="shared" si="14"/>
+      <c r="G65" s="10">
+        <f t="shared" si="6"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="H65" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H65" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C3</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J65" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="J65" s="37" t="str">
+        <f>IF(H65=I65,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
       <c r="P65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q65" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q65" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R65" s="7">
-        <f t="shared" si="18"/>
+      <c r="R65" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S65" s="7">
-        <f t="shared" si="19"/>
+      <c r="S65" s="10">
+        <f t="shared" si="11"/>
         <v>0.51999999999999957</v>
       </c>
     </row>
@@ -7672,194 +7661,194 @@
       <c r="C66" s="2">
         <v>8</v>
       </c>
-      <c r="D66" s="7">
-        <f t="shared" si="10"/>
+      <c r="D66" s="10">
+        <f>SQRT(($B66-$M$26)^2+($C66-$N$26)^2)</f>
         <v>6.800735254367722</v>
       </c>
-      <c r="E66" s="7">
-        <f t="shared" si="11"/>
+      <c r="E66" s="10">
+        <f>SQRT(($B66-$M$27)^2+($C66-$N$27)^2)</f>
         <v>4.5607017003965522</v>
       </c>
-      <c r="F66" s="13">
-        <f t="shared" si="12"/>
+      <c r="F66" s="28">
+        <f>SQRT(($B66-$M$28)^2+($C66-$N$28)^2)</f>
         <v>3.4801021696368499</v>
       </c>
-      <c r="G66" s="7">
-        <f t="shared" si="14"/>
+      <c r="G66" s="10">
+        <f t="shared" si="6"/>
         <v>3.4801021696368499</v>
       </c>
-      <c r="H66" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="H66" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>C2</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>C3</v>
       </c>
-      <c r="J66" s="17" t="str">
-        <f t="shared" si="13"/>
+      <c r="J66" s="35" t="str">
+        <f>IF(H66=I66,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
       <c r="P66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q66" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q66" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R66" s="7">
-        <f t="shared" si="18"/>
+      <c r="R66" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S66" s="7">
-        <f t="shared" si="19"/>
+      <c r="S66" s="10">
+        <f t="shared" si="11"/>
         <v>7.1199999999999983</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="15">
         <f>SUM(Q57:Q66)</f>
         <v>0.5</v>
       </c>
-      <c r="R67" s="8">
-        <f t="shared" ref="R67" si="20">SUM(R57:R66)</f>
+      <c r="R67" s="15">
+        <f t="shared" ref="R67" si="12">SUM(R57:R66)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="S67" s="8">
-        <f t="shared" ref="S67" si="21">SUM(S57:S66)</f>
+      <c r="S67" s="15">
+        <f t="shared" ref="S67" si="13">SUM(S57:S66)</f>
         <v>14.4</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P68" s="22" t="s">
+      <c r="P68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="9">
+      <c r="Q68" s="17"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="19">
         <f>SUM(Q67:S67)</f>
         <v>19.566666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="22" t="s">
+      <c r="P69" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="9">
+      <c r="Q69" s="17"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="19">
         <f>S37-S68</f>
         <v>27.600000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+    <row r="84" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="30" t="s">
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I86" s="33" t="s">
+      <c r="I86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="29" t="s">
+      <c r="K86" s="31"/>
+      <c r="L86" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="P86" s="32" t="s">
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="P86" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="6" t="s">
+      <c r="G87" s="7"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="N87" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P87" s="12" t="s">
+      <c r="P87" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q87" s="12" t="s">
+      <c r="Q87" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R87" s="12" t="s">
+      <c r="R87" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S87" s="12" t="s">
+      <c r="S87" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7873,23 +7862,23 @@
       <c r="C88" s="2">
         <v>1</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="28">
         <f>SQRT(($B88-$M$57)^2+($C88-$N$57)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="10">
         <f>SQRT(($B88-$M$58)^2+($C88-$N$58)^2)</f>
         <v>4.0551750201988126</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="10">
         <f>SQRT(($B88-$M$59)^2+($C88-$N$59)^2)</f>
         <v>4.6173585522460785</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="10">
         <f>MIN(D88:F88)</f>
         <v>0.5</v>
       </c>
-      <c r="H88" s="2" t="str">
+      <c r="H88" s="32" t="str">
         <f>I57</f>
         <v>C1</v>
       </c>
@@ -7897,33 +7886,33 @@
         <f>IF(MIN(D88:F88)=D88,$E$7,(IF(MIN(D88:F88)=E88,$E$8,$E$9)))</f>
         <v>C1</v>
       </c>
-      <c r="J88" s="18" t="str">
-        <f t="shared" ref="J88:J97" si="22">IF(H88=I88,"TETAP","BERUBAH")</f>
+      <c r="J88" s="37" t="str">
+        <f>IF(H88=I88,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M88" s="10">
         <f>AVERAGEIF($I88:$I97,"C1",$B88:$B97)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N88" s="7">
+      <c r="N88" s="10">
         <f>AVERAGEIF($I88:$I97,"C1",$C88:$C97)</f>
         <v>2</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q88" s="10">
         <f>IF(MIN($D88:$F88)=$D88,($B88-$M$88)^2+($C88-$N$88)^2,0)</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="R88" s="7">
+      <c r="R88" s="10">
         <f>IF(MIN($D88:$F88)=$E88,($B88-$M$89)^2+($C88-$N$89)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S88" s="7">
+      <c r="S88" s="10">
         <f>IF(MIN($D88:$F88)=$F88,($B88-$M$90)^2+($C88-$N$90)^2,0)</f>
         <v>0</v>
       </c>
@@ -7938,58 +7927,58 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="7">
-        <f t="shared" ref="D89:D97" si="23">SQRT(($B89-$M$57)^2+($C89-$N$57)^2)</f>
+      <c r="D89" s="10">
+        <f t="shared" ref="D89:D97" si="14">SQRT(($B89-$M$57)^2+($C89-$N$57)^2)</f>
         <v>3.0413812651491097</v>
       </c>
-      <c r="E89" s="13">
-        <f t="shared" ref="E89:E97" si="24">SQRT(($B89-$M$58)^2+($C89-$N$58)^2)</f>
+      <c r="E89" s="28">
+        <f t="shared" ref="E89:E97" si="15">SQRT(($B89-$M$58)^2+($C89-$N$58)^2)</f>
         <v>1.2018504251546631</v>
       </c>
-      <c r="F89" s="7">
-        <f t="shared" ref="F89:F97" si="25">SQRT(($B89-$M$59)^2+($C89-$N$59)^2)</f>
+      <c r="F89" s="10">
+        <f t="shared" ref="F89:F97" si="16">SQRT(($B89-$M$59)^2+($C89-$N$59)^2)</f>
         <v>4.6818799642878499</v>
       </c>
-      <c r="G89" s="7">
-        <f t="shared" ref="G89:G97" si="26">MIN(D89:F89)</f>
+      <c r="G89" s="10">
+        <f t="shared" ref="G89:G97" si="17">MIN(D89:F89)</f>
         <v>1.2018504251546631</v>
       </c>
-      <c r="H89" s="2" t="str">
-        <f t="shared" ref="H89:H97" si="27">I58</f>
+      <c r="H89" s="32" t="str">
+        <f t="shared" ref="H89:H97" si="18">I58</f>
         <v>C2</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" ref="I89:I97" si="28">IF(MIN(D89:F89)=D89,$D$56,(IF(MIN(D89:F89)=E89,$E$56,$F$56)))</f>
+        <f t="shared" ref="I89:I97" si="19">IF(MIN(D89:F89)=D89,$D$56,(IF(MIN(D89:F89)=E89,$E$56,$F$56)))</f>
         <v>C2</v>
       </c>
-      <c r="J89" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J89" s="37" t="str">
+        <f>IF(H89=I89,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M89" s="10">
         <f>AVERAGEIF($I88:$I97,"C2",$B88:$B97)</f>
         <v>5</v>
       </c>
-      <c r="N89" s="7">
+      <c r="N89" s="10">
         <f>AVERAGEIF($I88:$I97,"C2",$C88:$C97)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q89" s="7">
-        <f t="shared" ref="Q89:Q97" si="29">IF(MIN($D89:$F89)=$D89,($B89-$M$88)^2+($C89-$N$88)^2,0)</f>
+      <c r="Q89" s="10">
+        <f t="shared" ref="Q89:Q97" si="20">IF(MIN($D89:$F89)=$D89,($B89-$M$88)^2+($C89-$N$88)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R89" s="7">
-        <f t="shared" ref="R89:R97" si="30">IF(MIN($D89:$F89)=$E89,($B89-$M$89)^2+($C89-$N$89)^2,0)</f>
+      <c r="R89" s="10">
+        <f t="shared" ref="R89:R97" si="21">IF(MIN($D89:$F89)=$E89,($B89-$M$89)^2+($C89-$N$89)^2,0)</f>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S89" s="7">
-        <f t="shared" ref="S89:S97" si="31">IF(MIN($D89:$F89)=$F89,($B89-$M$90)^2+($C89-$N$90)^2,0)</f>
+      <c r="S89" s="10">
+        <f t="shared" ref="S89:S97" si="22">IF(MIN($D89:$F89)=$F89,($B89-$M$90)^2+($C89-$N$90)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8003,58 +7992,58 @@
       <c r="C90" s="2">
         <v>1</v>
       </c>
-      <c r="D90" s="7">
-        <f t="shared" si="23"/>
+      <c r="D90" s="10">
+        <f t="shared" si="14"/>
         <v>5.024937810560445</v>
       </c>
-      <c r="E90" s="13">
-        <f t="shared" si="24"/>
+      <c r="E90" s="28">
+        <f t="shared" si="15"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="F90" s="7">
-        <f t="shared" si="25"/>
+      <c r="F90" s="10">
+        <f t="shared" si="16"/>
         <v>5.6850681614207588</v>
       </c>
-      <c r="G90" s="7">
-        <f t="shared" si="26"/>
+      <c r="G90" s="10">
+        <f t="shared" si="17"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="H90" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H90" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="J90" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J90" s="37" t="str">
+        <f>IF(H90=I90,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M90" s="10">
         <f>AVERAGEIF($I88:$I97,"C3",$B88:$B97)</f>
         <v>2.5</v>
       </c>
-      <c r="N90" s="7">
+      <c r="N90" s="10">
         <f>AVERAGEIF($I88:$I97,"C3",$C88:$C97)</f>
         <v>6</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q90" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q90" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R90" s="7">
-        <f t="shared" si="30"/>
+      <c r="R90" s="10">
+        <f t="shared" si="21"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S90" s="7">
-        <f t="shared" si="31"/>
+      <c r="S90" s="10">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8068,47 +8057,47 @@
       <c r="C91" s="2">
         <v>2</v>
       </c>
-      <c r="D91" s="13">
-        <f t="shared" si="23"/>
+      <c r="D91" s="28">
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="E91" s="7">
-        <f t="shared" si="24"/>
+      <c r="E91" s="10">
+        <f t="shared" si="15"/>
         <v>4.0138648595974313</v>
       </c>
-      <c r="F91" s="7">
-        <f t="shared" si="25"/>
+      <c r="F91" s="10">
+        <f t="shared" si="16"/>
         <v>3.6769552621700474</v>
       </c>
-      <c r="G91" s="7">
-        <f t="shared" si="26"/>
+      <c r="G91" s="10">
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="H91" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H91" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="I91" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="J91" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J91" s="37" t="str">
+        <f>IF(H91=I91,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q91" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q91" s="10">
+        <f t="shared" si="20"/>
         <v>0.11111111111111106</v>
       </c>
-      <c r="R91" s="7">
-        <f t="shared" si="30"/>
+      <c r="R91" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S91" s="7">
-        <f t="shared" si="31"/>
+      <c r="S91" s="10">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8122,50 +8111,50 @@
       <c r="C92" s="2">
         <v>3</v>
       </c>
-      <c r="D92" s="13">
-        <f t="shared" si="23"/>
+      <c r="D92" s="28">
+        <f t="shared" si="14"/>
         <v>1.8027756377319946</v>
       </c>
-      <c r="E92" s="7">
-        <f t="shared" si="24"/>
+      <c r="E92" s="10">
+        <f t="shared" si="15"/>
         <v>3.2829526005987018</v>
       </c>
-      <c r="F92" s="7">
-        <f t="shared" si="25"/>
+      <c r="F92" s="10">
+        <f t="shared" si="16"/>
         <v>2.4331050121192881</v>
       </c>
-      <c r="G92" s="7">
-        <f t="shared" si="26"/>
+      <c r="G92" s="10">
+        <f t="shared" si="17"/>
         <v>1.8027756377319946</v>
       </c>
-      <c r="H92" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H92" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C3</v>
       </c>
       <c r="I92" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="J92" s="17" t="str">
-        <f t="shared" si="22"/>
+      <c r="J92" s="35" t="str">
+        <f>IF(H92=I92,"TETAP","BERUBAH")</f>
         <v>BERUBAH</v>
       </c>
-      <c r="L92" s="15" t="s">
+      <c r="L92" s="30" t="s">
         <v>32</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q92" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q92" s="10">
+        <f t="shared" si="20"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="R92" s="7">
-        <f t="shared" si="30"/>
+      <c r="R92" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S92" s="7">
-        <f t="shared" si="31"/>
+      <c r="S92" s="10">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8179,48 +8168,48 @@
       <c r="C93" s="2">
         <v>3</v>
       </c>
-      <c r="D93" s="7">
-        <f t="shared" si="23"/>
+      <c r="D93" s="10">
+        <f t="shared" si="14"/>
         <v>4.2720018726587652</v>
       </c>
-      <c r="E93" s="13">
-        <f t="shared" si="24"/>
+      <c r="E93" s="28">
+        <f t="shared" si="15"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F93" s="7">
-        <f t="shared" si="25"/>
+      <c r="F93" s="10">
+        <f t="shared" si="16"/>
         <v>3.5383612025908269</v>
       </c>
-      <c r="G93" s="7">
-        <f t="shared" si="26"/>
+      <c r="G93" s="10">
+        <f t="shared" si="17"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H93" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H93" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="I93" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="J93" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J93" s="37" t="str">
+        <f>IF(H93=I93,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L93" s="15"/>
+      <c r="L93" s="30"/>
       <c r="P93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q93" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q93" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R93" s="7">
-        <f t="shared" si="30"/>
+      <c r="R93" s="10">
+        <f t="shared" si="21"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="S93" s="7">
-        <f t="shared" si="31"/>
+      <c r="S93" s="10">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8234,52 +8223,52 @@
       <c r="C94" s="2">
         <v>5</v>
       </c>
-      <c r="D94" s="7">
-        <f t="shared" si="23"/>
+      <c r="D94" s="10">
+        <f t="shared" si="14"/>
         <v>3.640054944640259</v>
       </c>
-      <c r="E94" s="7">
-        <f t="shared" si="24"/>
+      <c r="E94" s="10">
+        <f t="shared" si="15"/>
         <v>4.4845413490245694</v>
       </c>
-      <c r="F94" s="13">
-        <f t="shared" si="25"/>
+      <c r="F94" s="28">
+        <f t="shared" si="16"/>
         <v>0.56568542494923812</v>
       </c>
-      <c r="G94" s="7">
-        <f t="shared" si="26"/>
+      <c r="G94" s="10">
+        <f t="shared" si="17"/>
         <v>0.56568542494923812</v>
       </c>
-      <c r="H94" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H94" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C3</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C3</v>
       </c>
-      <c r="J94" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J94" s="37" t="str">
+        <f>IF(H94=I94,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L94" s="26" t="s">
+      <c r="L94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M94" s="26"/>
-      <c r="N94" s="26"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
       <c r="P94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q94" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R94" s="7">
-        <f t="shared" si="30"/>
+      <c r="R94" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S94" s="7">
-        <f t="shared" si="31"/>
+      <c r="S94" s="10">
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
     </row>
@@ -8293,50 +8282,50 @@
       <c r="C95" s="2">
         <v>5</v>
       </c>
-      <c r="D95" s="7">
-        <f t="shared" si="23"/>
+      <c r="D95" s="10">
+        <f t="shared" si="14"/>
         <v>4.0311288741492746</v>
       </c>
-      <c r="E95" s="7">
-        <f t="shared" si="24"/>
+      <c r="E95" s="10">
+        <f t="shared" si="15"/>
         <v>3.8873012632302002</v>
       </c>
-      <c r="F95" s="13">
-        <f t="shared" si="25"/>
+      <c r="F95" s="28">
+        <f t="shared" si="16"/>
         <v>0.72111025509279814</v>
       </c>
-      <c r="G95" s="7">
-        <f t="shared" si="26"/>
+      <c r="G95" s="10">
+        <f t="shared" si="17"/>
         <v>0.72111025509279814</v>
       </c>
-      <c r="H95" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H95" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C3</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C3</v>
       </c>
-      <c r="J95" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J95" s="37" t="str">
+        <f>IF(H95=I95,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
       <c r="P95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q95" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q95" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R95" s="7">
-        <f t="shared" si="30"/>
+      <c r="R95" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S95" s="7">
-        <f t="shared" si="31"/>
+      <c r="S95" s="10">
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
     </row>
@@ -8350,50 +8339,50 @@
       <c r="C96" s="2">
         <v>6</v>
       </c>
-      <c r="D96" s="7">
-        <f t="shared" si="23"/>
+      <c r="D96" s="10">
+        <f t="shared" si="14"/>
         <v>4.6097722286464435</v>
       </c>
-      <c r="E96" s="7">
-        <f t="shared" si="24"/>
+      <c r="E96" s="10">
+        <f t="shared" si="15"/>
         <v>5.2704627669472988</v>
       </c>
-      <c r="F96" s="13">
-        <f t="shared" si="25"/>
+      <c r="F96" s="28">
+        <f t="shared" si="16"/>
         <v>0.72111025509279758</v>
       </c>
-      <c r="G96" s="7">
-        <f t="shared" si="26"/>
+      <c r="G96" s="10">
+        <f t="shared" si="17"/>
         <v>0.72111025509279758</v>
       </c>
-      <c r="H96" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H96" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C3</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C3</v>
       </c>
-      <c r="J96" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J96" s="37" t="str">
+        <f>IF(H96=I96,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
       <c r="P96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q96" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q96" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R96" s="7">
-        <f t="shared" si="30"/>
+      <c r="R96" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S96" s="7">
-        <f t="shared" si="31"/>
+      <c r="S96" s="10">
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
     </row>
@@ -8407,194 +8396,194 @@
       <c r="C97" s="2">
         <v>8</v>
       </c>
-      <c r="D97" s="7">
-        <f t="shared" si="23"/>
+      <c r="D97" s="10">
+        <f t="shared" si="14"/>
         <v>6.800735254367722</v>
       </c>
-      <c r="E97" s="7">
-        <f t="shared" si="24"/>
+      <c r="E97" s="10">
+        <f t="shared" si="15"/>
         <v>6.641619615057091</v>
       </c>
-      <c r="F97" s="13">
-        <f t="shared" si="25"/>
+      <c r="F97" s="28">
+        <f t="shared" si="16"/>
         <v>2.6683328128252666</v>
       </c>
-      <c r="G97" s="7">
-        <f t="shared" si="26"/>
+      <c r="G97" s="10">
+        <f t="shared" si="17"/>
         <v>2.6683328128252666</v>
       </c>
-      <c r="H97" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="H97" s="32" t="str">
+        <f t="shared" si="18"/>
         <v>C3</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>C3</v>
       </c>
-      <c r="J97" s="18" t="str">
-        <f t="shared" si="22"/>
+      <c r="J97" s="37" t="str">
+        <f>IF(H97=I97,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L97" s="26"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
       <c r="P97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q97" s="7">
-        <f t="shared" si="29"/>
+      <c r="Q97" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R97" s="7">
-        <f t="shared" si="30"/>
+      <c r="R97" s="10">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S97" s="7">
-        <f t="shared" si="31"/>
+      <c r="S97" s="10">
+        <f t="shared" si="22"/>
         <v>4.25</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P98" s="1" t="s">
+      <c r="P98" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="Q98" s="15">
         <f>SUM(Q88:Q97)</f>
         <v>2.666666666666667</v>
       </c>
-      <c r="R98" s="8">
-        <f t="shared" ref="R98" si="32">SUM(R88:R97)</f>
+      <c r="R98" s="15">
+        <f t="shared" ref="R98" si="23">SUM(R88:R97)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="S98" s="8">
-        <f t="shared" ref="S98" si="33">SUM(S88:S97)</f>
+      <c r="S98" s="15">
+        <f t="shared" ref="S98" si="24">SUM(S88:S97)</f>
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P99" s="22" t="s">
+      <c r="P99" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="9">
+      <c r="Q99" s="17"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="19">
         <f>SUM(Q98:S98)</f>
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P100" s="22" t="s">
+      <c r="P100" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="9">
+      <c r="Q100" s="17"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="19">
         <f>S68-S99</f>
         <v>5.2333333333333325</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+    <row r="115" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="27"/>
-      <c r="P115" s="27"/>
-      <c r="Q115" s="27"/>
-      <c r="R115" s="27"/>
-      <c r="S115" s="27"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29" t="s">
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="30" t="s">
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H117" s="33" t="s">
+      <c r="H117" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I117" s="33" t="s">
+      <c r="I117" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J117" s="31" t="s">
+      <c r="J117" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K117" s="16"/>
-      <c r="L117" s="29" t="s">
+      <c r="K117" s="31"/>
+      <c r="L117" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29"/>
-      <c r="P117" s="32" t="s">
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="P117" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32"/>
-      <c r="S117" s="32"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="30"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="6" t="s">
+      <c r="G118" s="7"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M118" s="6" t="s">
+      <c r="M118" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N118" s="6" t="s">
+      <c r="N118" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P118" s="12" t="s">
+      <c r="P118" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q118" s="12" t="s">
+      <c r="Q118" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R118" s="12" t="s">
+      <c r="R118" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S118" s="12" t="s">
+      <c r="S118" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8608,23 +8597,23 @@
       <c r="C119" s="2">
         <v>1</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="28">
         <f>SQRT(($B119-$M$88)^2+($C119-$N$88)^2)</f>
         <v>1.0540925533894598</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="10">
         <f>SQRT(($B119-$M$89)^2+($C119-$N$89)^2)</f>
         <v>4.0551750201988126</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="10">
         <f>SQRT(($B119-$M$90)^2+($C119-$N$90)^2)</f>
         <v>5.2201532544552753</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119" s="10">
         <f>MIN(D119:F119)</f>
         <v>1.0540925533894598</v>
       </c>
-      <c r="H119" s="2" t="str">
+      <c r="H119" s="32" t="str">
         <f>I88</f>
         <v>C1</v>
       </c>
@@ -8632,33 +8621,33 @@
         <f>IF(MIN(D119:F119)=D119,$E$7,(IF(MIN(D119:F119)=E119,$E$8,$E$9)))</f>
         <v>C1</v>
       </c>
-      <c r="J119" s="18" t="str">
-        <f t="shared" ref="J119:J128" si="34">IF(H119=I119,"TETAP","BERUBAH")</f>
+      <c r="J119" s="37" t="str">
+        <f>IF(H119=I119,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M119" s="7">
+      <c r="M119" s="10">
         <f>AVERAGEIF($I119:$I128,"C1",$B119:$B128)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N119" s="7">
+      <c r="N119" s="10">
         <f>AVERAGEIF($I119:$I128,"C1",$C119:$C128)</f>
         <v>2</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q119" s="7">
+      <c r="Q119" s="10">
         <f>IF(MIN($D119:$F119)=$D119,($B119-$M$119)^2+($C119-$N$119)^2,0)</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="R119" s="7">
+      <c r="R119" s="10">
         <f>IF(MIN($D119:$F119)=$E119,($B119-$M$120)^2+($C119-$N$120)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="7">
+      <c r="S119" s="10">
         <f>IF(MIN($D119:$F119)=$F119,($B119-$M$121)^2+($C119-$N$121)^2,0)</f>
         <v>0</v>
       </c>
@@ -8673,58 +8662,58 @@
       <c r="C120" s="2">
         <v>1</v>
       </c>
-      <c r="D120" s="7">
-        <f t="shared" ref="D120:D128" si="35">SQRT(($B120-$M$88)^2+($C120-$N$88)^2)</f>
+      <c r="D120" s="10">
+        <f t="shared" ref="D120:D128" si="25">SQRT(($B120-$M$88)^2+($C120-$N$88)^2)</f>
         <v>2.8480012484391772</v>
       </c>
-      <c r="E120" s="13">
-        <f t="shared" ref="E120:E128" si="36">SQRT(($B120-$M$89)^2+($C120-$N$89)^2)</f>
+      <c r="E120" s="28">
+        <f t="shared" ref="E120:E128" si="26">SQRT(($B120-$M$89)^2+($C120-$N$89)^2)</f>
         <v>1.2018504251546631</v>
       </c>
-      <c r="F120" s="7">
-        <f t="shared" ref="F120:F128" si="37">SQRT(($B120-$M$90)^2+($C120-$N$90)^2)</f>
+      <c r="F120" s="10">
+        <f t="shared" ref="F120:F128" si="27">SQRT(($B120-$M$90)^2+($C120-$N$90)^2)</f>
         <v>5.2201532544552753</v>
       </c>
-      <c r="G120" s="7">
-        <f t="shared" ref="G120:G128" si="38">MIN(D120:F120)</f>
+      <c r="G120" s="10">
+        <f t="shared" ref="G120:G128" si="28">MIN(D120:F120)</f>
         <v>1.2018504251546631</v>
       </c>
-      <c r="H120" s="2" t="str">
-        <f t="shared" ref="H120:H128" si="39">I89</f>
+      <c r="H120" s="32" t="str">
+        <f t="shared" ref="H120:H128" si="29">I89</f>
         <v>C2</v>
       </c>
       <c r="I120" s="2" t="str">
-        <f t="shared" ref="I120:I128" si="40">IF(MIN(D120:F120)=D120,$D$56,(IF(MIN(D120:F120)=E120,$E$56,$F$56)))</f>
+        <f t="shared" ref="I120:I128" si="30">IF(MIN(D120:F120)=D120,$D$56,(IF(MIN(D120:F120)=E120,$E$56,$F$56)))</f>
         <v>C2</v>
       </c>
-      <c r="J120" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J120" s="37" t="str">
+        <f>IF(H120=I120,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="7">
+      <c r="M120" s="10">
         <f>AVERAGEIF($I119:$I128,"C2",$B119:$B128)</f>
         <v>5</v>
       </c>
-      <c r="N120" s="7">
+      <c r="N120" s="10">
         <f>AVERAGEIF($I119:$I128,"C2",$C119:$C128)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q120" s="7">
-        <f t="shared" ref="Q120:Q128" si="41">IF(MIN($D120:$F120)=$D120,($B120-$M$119)^2+($C120-$N$119)^2,0)</f>
+      <c r="Q120" s="10">
+        <f t="shared" ref="Q120:Q128" si="31">IF(MIN($D120:$F120)=$D120,($B120-$M$119)^2+($C120-$N$119)^2,0)</f>
         <v>0</v>
       </c>
-      <c r="R120" s="7">
-        <f t="shared" ref="R120:R128" si="42">IF(MIN($D120:$F120)=$E120,($B120-$M$120)^2+($C120-$N$120)^2,0)</f>
+      <c r="R120" s="10">
+        <f t="shared" ref="R120:R128" si="32">IF(MIN($D120:$F120)=$E120,($B120-$M$120)^2+($C120-$N$120)^2,0)</f>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S120" s="7">
-        <f t="shared" ref="S120:S128" si="43">IF(MIN($D120:$F120)=$F120,($B120-$M$121)^2+($C120-$N$121)^2,0)</f>
+      <c r="S120" s="10">
+        <f t="shared" ref="S120:S128" si="33">IF(MIN($D120:$F120)=$F120,($B120-$M$121)^2+($C120-$N$121)^2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8738,58 +8727,58 @@
       <c r="C121" s="2">
         <v>1</v>
       </c>
-      <c r="D121" s="7">
-        <f t="shared" si="35"/>
+      <c r="D121" s="10">
+        <f t="shared" si="25"/>
         <v>4.7726070210921181</v>
       </c>
-      <c r="E121" s="13">
-        <f t="shared" si="36"/>
+      <c r="E121" s="28">
+        <f t="shared" si="26"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="F121" s="7">
-        <f t="shared" si="37"/>
+      <c r="F121" s="10">
+        <f t="shared" si="27"/>
         <v>6.103277807866851</v>
       </c>
-      <c r="G121" s="7">
-        <f t="shared" si="38"/>
+      <c r="G121" s="10">
+        <f t="shared" si="28"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="H121" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H121" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C2</v>
       </c>
       <c r="I121" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C2</v>
       </c>
-      <c r="J121" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J121" s="37" t="str">
+        <f>IF(H121=I121,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M121" s="7">
+      <c r="M121" s="10">
         <f>AVERAGEIF($I119:$I128,"C3",$B119:$B128)</f>
         <v>2.5</v>
       </c>
-      <c r="N121" s="7">
+      <c r="N121" s="10">
         <f>AVERAGEIF($I119:$I128,"C3",$C119:$C128)</f>
         <v>6</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q121" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q121" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R121" s="7">
-        <f t="shared" si="42"/>
+      <c r="R121" s="10">
+        <f t="shared" si="32"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="S121" s="7">
-        <f t="shared" si="43"/>
+      <c r="S121" s="10">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8803,47 +8792,47 @@
       <c r="C122" s="2">
         <v>2</v>
       </c>
-      <c r="D122" s="13">
-        <f t="shared" si="35"/>
+      <c r="D122" s="28">
+        <f t="shared" si="25"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="E122" s="7">
-        <f t="shared" si="36"/>
+      <c r="E122" s="10">
+        <f t="shared" si="26"/>
         <v>4.0138648595974313</v>
       </c>
-      <c r="F122" s="7">
-        <f t="shared" si="37"/>
+      <c r="F122" s="10">
+        <f t="shared" si="27"/>
         <v>4.2720018726587652</v>
       </c>
-      <c r="G122" s="7">
-        <f t="shared" si="38"/>
+      <c r="G122" s="10">
+        <f t="shared" si="28"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H122" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H122" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C1</v>
       </c>
       <c r="I122" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C1</v>
       </c>
-      <c r="J122" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J122" s="37" t="str">
+        <f>IF(H122=I122,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q122" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q122" s="10">
+        <f t="shared" si="31"/>
         <v>0.11111111111111106</v>
       </c>
-      <c r="R122" s="7">
-        <f t="shared" si="42"/>
+      <c r="R122" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S122" s="7">
-        <f t="shared" si="43"/>
+      <c r="S122" s="10">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8857,50 +8846,50 @@
       <c r="C123" s="2">
         <v>3</v>
       </c>
-      <c r="D123" s="13">
-        <f t="shared" si="35"/>
+      <c r="D123" s="28">
+        <f t="shared" si="25"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="E123" s="7">
-        <f t="shared" si="36"/>
+      <c r="E123" s="10">
+        <f t="shared" si="26"/>
         <v>3.2829526005987018</v>
       </c>
-      <c r="F123" s="7">
-        <f t="shared" si="37"/>
+      <c r="F123" s="10">
+        <f t="shared" si="27"/>
         <v>3.0413812651491097</v>
       </c>
-      <c r="G123" s="7">
-        <f t="shared" si="38"/>
+      <c r="G123" s="10">
+        <f t="shared" si="28"/>
         <v>1.2018504251546631</v>
       </c>
-      <c r="H123" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H123" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C1</v>
       </c>
       <c r="I123" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C1</v>
       </c>
-      <c r="J123" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J123" s="37" t="str">
+        <f>IF(H123=I123,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L123" s="15" t="s">
+      <c r="L123" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q123" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q123" s="10">
+        <f t="shared" si="31"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="R123" s="7">
-        <f t="shared" si="42"/>
+      <c r="R123" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S123" s="7">
-        <f t="shared" si="43"/>
+      <c r="S123" s="10">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8914,48 +8903,48 @@
       <c r="C124" s="2">
         <v>3</v>
       </c>
-      <c r="D124" s="7">
-        <f t="shared" si="35"/>
+      <c r="D124" s="10">
+        <f t="shared" si="25"/>
         <v>3.8005847503304602</v>
       </c>
-      <c r="E124" s="13">
-        <f t="shared" si="36"/>
+      <c r="E124" s="28">
+        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F124" s="7">
-        <f t="shared" si="37"/>
+      <c r="F124" s="10">
+        <f t="shared" si="27"/>
         <v>3.905124837953327</v>
       </c>
-      <c r="G124" s="7">
-        <f t="shared" si="38"/>
+      <c r="G124" s="10">
+        <f t="shared" si="28"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H124" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H124" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C2</v>
       </c>
       <c r="I124" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C2</v>
       </c>
-      <c r="J124" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J124" s="37" t="str">
+        <f>IF(H124=I124,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L124" s="15"/>
+      <c r="L124" s="30"/>
       <c r="P124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q124" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q124" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R124" s="7">
-        <f t="shared" si="42"/>
+      <c r="R124" s="10">
+        <f t="shared" si="32"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="S124" s="7">
-        <f t="shared" si="43"/>
+      <c r="S124" s="10">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8969,52 +8958,52 @@
       <c r="C125" s="2">
         <v>5</v>
       </c>
-      <c r="D125" s="7">
-        <f t="shared" si="35"/>
+      <c r="D125" s="10">
+        <f t="shared" si="25"/>
         <v>3.0731814857642958</v>
       </c>
-      <c r="E125" s="7">
-        <f t="shared" si="36"/>
+      <c r="E125" s="10">
+        <f t="shared" si="26"/>
         <v>4.4845413490245694</v>
       </c>
-      <c r="F125" s="13">
-        <f t="shared" si="37"/>
+      <c r="F125" s="28">
+        <f t="shared" si="27"/>
         <v>1.1180339887498949</v>
       </c>
-      <c r="G125" s="7">
-        <f t="shared" si="38"/>
+      <c r="G125" s="10">
+        <f t="shared" si="28"/>
         <v>1.1180339887498949</v>
       </c>
-      <c r="H125" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H125" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C3</v>
       </c>
       <c r="I125" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C3</v>
       </c>
-      <c r="J125" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J125" s="37" t="str">
+        <f>IF(H125=I125,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L125" s="25" t="s">
+      <c r="L125" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M125" s="25"/>
-      <c r="N125" s="25"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
       <c r="P125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q125" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q125" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R125" s="7">
-        <f t="shared" si="42"/>
+      <c r="R125" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S125" s="7">
-        <f t="shared" si="43"/>
+      <c r="S125" s="10">
+        <f t="shared" si="33"/>
         <v>1.25</v>
       </c>
     </row>
@@ -9028,50 +9017,50 @@
       <c r="C126" s="2">
         <v>5</v>
       </c>
-      <c r="D126" s="7">
-        <f t="shared" si="35"/>
+      <c r="D126" s="10">
+        <f t="shared" si="25"/>
         <v>3.4318767136623336</v>
       </c>
-      <c r="E126" s="7">
-        <f t="shared" si="36"/>
+      <c r="E126" s="10">
+        <f t="shared" si="26"/>
         <v>3.8873012632302002</v>
       </c>
-      <c r="F126" s="13">
-        <f t="shared" si="37"/>
+      <c r="F126" s="28">
+        <f t="shared" si="27"/>
         <v>1.1180339887498949</v>
       </c>
-      <c r="G126" s="7">
-        <f t="shared" si="38"/>
+      <c r="G126" s="10">
+        <f t="shared" si="28"/>
         <v>1.1180339887498949</v>
       </c>
-      <c r="H126" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H126" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C3</v>
       </c>
       <c r="I126" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C3</v>
       </c>
-      <c r="J126" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J126" s="37" t="str">
+        <f>IF(H126=I126,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
       <c r="P126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q126" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q126" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R126" s="7">
-        <f t="shared" si="42"/>
+      <c r="R126" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S126" s="7">
-        <f t="shared" si="43"/>
+      <c r="S126" s="10">
+        <f t="shared" si="33"/>
         <v>1.25</v>
       </c>
     </row>
@@ -9085,50 +9074,50 @@
       <c r="C127" s="2">
         <v>6</v>
       </c>
-      <c r="D127" s="7">
-        <f t="shared" si="35"/>
+      <c r="D127" s="10">
+        <f t="shared" si="25"/>
         <v>4.0551750201988126</v>
       </c>
-      <c r="E127" s="7">
-        <f t="shared" si="36"/>
+      <c r="E127" s="10">
+        <f t="shared" si="26"/>
         <v>5.2704627669472988</v>
       </c>
-      <c r="F127" s="13">
-        <f t="shared" si="37"/>
+      <c r="F127" s="28">
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="G127" s="7">
-        <f t="shared" si="38"/>
+      <c r="G127" s="10">
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
-      <c r="H127" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H127" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C3</v>
       </c>
       <c r="I127" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C3</v>
       </c>
-      <c r="J127" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J127" s="37" t="str">
+        <f>IF(H127=I127,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
       <c r="P127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q127" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q127" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R127" s="7">
-        <f t="shared" si="42"/>
+      <c r="R127" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S127" s="7">
-        <f t="shared" si="43"/>
+      <c r="S127" s="10">
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9142,94 +9131,132 @@
       <c r="C128" s="2">
         <v>8</v>
       </c>
-      <c r="D128" s="7">
-        <f t="shared" si="35"/>
+      <c r="D128" s="10">
+        <f t="shared" si="25"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="E128" s="7">
-        <f t="shared" si="36"/>
+      <c r="E128" s="10">
+        <f t="shared" si="26"/>
         <v>6.641619615057091</v>
       </c>
-      <c r="F128" s="13">
-        <f t="shared" si="37"/>
+      <c r="F128" s="28">
+        <f t="shared" si="27"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="G128" s="7">
-        <f t="shared" si="38"/>
+      <c r="G128" s="10">
+        <f t="shared" si="28"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="H128" s="2" t="str">
-        <f t="shared" si="39"/>
+      <c r="H128" s="32" t="str">
+        <f t="shared" si="29"/>
         <v>C3</v>
       </c>
       <c r="I128" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>C3</v>
       </c>
-      <c r="J128" s="18" t="str">
-        <f t="shared" si="34"/>
+      <c r="J128" s="37" t="str">
+        <f>IF(H128=I128,"TETAP","BERUBAH")</f>
         <v>TETAP</v>
       </c>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="25"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
       <c r="P128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q128" s="7">
-        <f t="shared" si="41"/>
+      <c r="Q128" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R128" s="7">
-        <f t="shared" si="42"/>
+      <c r="R128" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S128" s="7">
-        <f t="shared" si="43"/>
+      <c r="S128" s="10">
+        <f t="shared" si="33"/>
         <v>4.25</v>
       </c>
     </row>
     <row r="129" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P129" s="1" t="s">
+      <c r="P129" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q129" s="8">
+      <c r="Q129" s="15">
         <f>SUM(Q119:Q128)</f>
         <v>2.666666666666667</v>
       </c>
-      <c r="R129" s="8">
-        <f t="shared" ref="R129" si="44">SUM(R119:R128)</f>
+      <c r="R129" s="15">
+        <f t="shared" ref="R129" si="34">SUM(R119:R128)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="S129" s="8">
-        <f t="shared" ref="S129" si="45">SUM(S119:S128)</f>
+      <c r="S129" s="15">
+        <f t="shared" ref="S129" si="35">SUM(S119:S128)</f>
         <v>7</v>
       </c>
     </row>
     <row r="130" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P130" s="22" t="s">
+      <c r="P130" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q130" s="23"/>
-      <c r="R130" s="24"/>
-      <c r="S130" s="9">
+      <c r="Q130" s="17"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="19">
         <f>SUM(Q129:S129)</f>
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="131" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P131" s="22" t="s">
+      <c r="P131" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q131" s="23"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="10">
+      <c r="Q131" s="17"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="20">
         <f>S99-S130</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="L32:N35"/>
+    <mergeCell ref="P130:R130"/>
+    <mergeCell ref="P131:R131"/>
+    <mergeCell ref="L125:N128"/>
+    <mergeCell ref="L94:N97"/>
+    <mergeCell ref="L63:N66"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="P100:R100"/>
+    <mergeCell ref="A115:S115"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="P117:S117"/>
+    <mergeCell ref="A84:S84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="P86:S86"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A53:S53"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="P24:S24"/>
     <mergeCell ref="A22:S22"/>
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="I55:I56"/>
@@ -9242,46 +9269,8 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A53:S53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="A84:S84"/>
-    <mergeCell ref="L32:N35"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="P117:S117"/>
-    <mergeCell ref="P130:R130"/>
-    <mergeCell ref="P131:R131"/>
-    <mergeCell ref="L125:N128"/>
-    <mergeCell ref="L94:N97"/>
-    <mergeCell ref="L63:N66"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="P99:R99"/>
-    <mergeCell ref="P100:R100"/>
-    <mergeCell ref="A115:S115"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="P86:S86"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="21" max="18" man="1"/>
